--- a/Data/Textbausteine_LENA_September2021.xlsx
+++ b/Data/Textbausteine_LENA_September2021.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="331">
   <si>
     <t>Text_ID</t>
   </si>
@@ -787,13 +787,13 @@
     <t>C'est à #Gemeinde_f que le refus le plus net de cet objet a été enregistré.</t>
   </si>
   <si>
-    <t>#Gemeinde_d hat damit gleich abgestimmt wie der Kanton Schaffhausen, der die Vorlage auch angenommen hat.</t>
+    <t>#Gemeinde_d hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch angenommen hat.</t>
   </si>
   <si>
     <t>#Gemeinde_f a approuvé le texte, tout comme le canton.</t>
   </si>
   <si>
-    <t>#Gemeinde_d hat damit anders abgestimmt als der gesamte Kanton Schaffhausen, der die Vorlage angenommen hat.</t>
+    <t>#Gemeinde_d hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage angenommen hat.</t>
   </si>
   <si>
     <t>#Gemeinde_f a rejeté le texte, contrairement au canton.</t>
@@ -877,12 +877,6 @@
     <t>Refus clair et net à #Gemeinde_f. Les #NeinStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche rejettent tous une loi permettant la reconnaissane de nouvelles communautés religieuses.</t>
   </si>
   <si>
-    <t>#Gemeinde_d hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
-  </si>
-  <si>
-    <t>#Gemeinde_d hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
-  </si>
-  <si>
     <t>#Gemeinde_d hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch abgelehnt hat.</t>
   </si>
   <si>
@@ -950,12 +944,6 @@
   </si>
   <si>
     <t>Klarer geht es nicht: In #Gemeinde_d haben alle #NeinStimmenAbsolut Abstimmenden das Stimmrechtsalter 16 abgelehnt.</t>
-  </si>
-  <si>
-    <t>#Gemeinde_d hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch angenommen hat.</t>
-  </si>
-  <si>
-    <t>#Gemeinde_d hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage angenommen hat.</t>
   </si>
   <si>
     <t>Variable</t>
@@ -10533,7 +10521,7 @@
       <c r="A15" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="9" t="s">
         <v>256</v>
       </c>
       <c r="C15" s="26" t="s">
@@ -10547,7 +10535,7 @@
       <c r="A16" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="9" t="s">
         <v>258</v>
       </c>
       <c r="C16" s="26" t="s">
@@ -14711,8 +14699,8 @@
       <c r="A15" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>286</v>
+      <c r="B15" s="9" t="s">
+        <v>256</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>257</v>
@@ -14725,8 +14713,8 @@
       <c r="A16" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>287</v>
+      <c r="B16" s="9" t="s">
+        <v>258</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>259</v>
@@ -14754,7 +14742,7 @@
         <v>136</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>263</v>
@@ -18720,7 +18708,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C2" s="6"/>
       <c r="E2" s="8" t="s">
@@ -18732,7 +18720,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C3" s="6"/>
     </row>
@@ -18741,7 +18729,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C4" s="6"/>
     </row>
@@ -18750,7 +18738,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C5" s="6"/>
       <c r="E5" s="8" t="s">
@@ -18762,7 +18750,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C6" s="6"/>
       <c r="E6" s="8" t="s">
@@ -18774,7 +18762,7 @@
         <v>36</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C7" s="6"/>
     </row>
@@ -18783,7 +18771,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C8" s="6"/>
     </row>
@@ -18792,7 +18780,7 @@
         <v>59</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C9" s="6"/>
       <c r="E9" s="8" t="s">
@@ -18804,7 +18792,7 @@
         <v>66</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C10" s="6"/>
       <c r="E10" s="8" t="s">
@@ -18816,7 +18804,7 @@
         <v>71</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C11" s="6"/>
       <c r="E11" s="8" t="s">
@@ -18828,7 +18816,7 @@
         <v>76</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C12" s="6"/>
       <c r="E12" s="8" t="s">
@@ -18863,8 +18851,8 @@
       <c r="A15" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>286</v>
+      <c r="B15" s="9" t="s">
+        <v>256</v>
       </c>
       <c r="C15" s="19"/>
       <c r="E15" s="8" t="s">
@@ -18875,8 +18863,8 @@
       <c r="A16" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>287</v>
+      <c r="B16" s="9" t="s">
+        <v>258</v>
       </c>
       <c r="C16" s="19"/>
       <c r="E16" s="8" t="s">
@@ -21839,7 +21827,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C2" s="6"/>
       <c r="E2" s="8" t="s">
@@ -21851,7 +21839,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C3" s="6"/>
     </row>
@@ -21860,7 +21848,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C4" s="6"/>
     </row>
@@ -21869,7 +21857,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C5" s="6"/>
       <c r="E5" s="8" t="s">
@@ -21881,7 +21869,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C6" s="6"/>
       <c r="E6" s="8" t="s">
@@ -21893,7 +21881,7 @@
         <v>36</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C7" s="6"/>
     </row>
@@ -21902,7 +21890,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C8" s="6"/>
     </row>
@@ -21911,7 +21899,7 @@
         <v>59</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C9" s="6"/>
       <c r="E9" s="8" t="s">
@@ -21923,7 +21911,7 @@
         <v>66</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C10" s="6"/>
       <c r="E10" s="8" t="s">
@@ -21935,7 +21923,7 @@
         <v>71</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C11" s="6"/>
       <c r="E11" s="8" t="s">
@@ -21947,7 +21935,7 @@
         <v>76</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C12" s="6"/>
       <c r="E12" s="8" t="s">
@@ -21983,7 +21971,7 @@
         <v>121</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>311</v>
+        <v>256</v>
       </c>
       <c r="C15" s="19"/>
       <c r="E15" s="8" t="s">
@@ -21995,7 +21983,7 @@
         <v>126</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="C16" s="19"/>
       <c r="E16" s="8" t="s">
@@ -24934,47 +24922,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="32" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B6" s="34">
         <v>60.4</v>
@@ -24982,7 +24970,7 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B7" s="34">
         <v>39.6</v>
@@ -24990,23 +24978,23 @@
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B10" s="34">
         <v>60.4</v>
@@ -25014,7 +25002,7 @@
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B11" s="34">
         <v>39.6</v>
@@ -25022,26 +25010,26 @@
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15">
